--- a/results/mp/logistic/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,42 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>die</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>sc</t>
   </si>
   <si>
     <t>fears</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
+    <t>low</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -94,121 +100,121 @@
     <t>negative</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>happy</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
     <t>good</t>
   </si>
   <si>
+    <t>save</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
   </si>
   <si>
     <t>join</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>gt</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>important</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>share</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
+    <t>helping</t>
   </si>
   <si>
     <t>increased</t>
   </si>
   <si>
+    <t>stay</t>
+  </si>
+  <si>
     <t>grocery</t>
-  </si>
-  <si>
-    <t>store</t>
   </si>
 </sst>
 </file>
@@ -574,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7631578947368421</v>
+        <v>0.7671232876712328</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>224</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9565217391304348</v>
+        <v>0.95</v>
       </c>
       <c r="L3">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="M3">
-        <v>44</v>
+        <v>114</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -677,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7586206896551724</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -706,16 +712,16 @@
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7568493150684932</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>221</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5588235294117647</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5405405405405406</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8537859007832899</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>327</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>56</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5277777777777778</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.8484848484848485</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4705882352941176</v>
+        <v>0.5135135135135135</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4406779661016949</v>
+        <v>0.4867724867724867</v>
       </c>
       <c r="C10">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="D10">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4338624338624338</v>
+        <v>0.4509803921568628</v>
       </c>
       <c r="C11">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8207547169811321</v>
+        <v>0.8093994778067886</v>
       </c>
       <c r="L11">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="M11">
-        <v>87</v>
+        <v>310</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4321705426356589</v>
+        <v>0.4496124031007752</v>
       </c>
       <c r="C12">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D12">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.80625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>129</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.36</v>
+        <v>0.375</v>
       </c>
       <c r="C13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.8046875</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2751677852348993</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C14">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D14">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8028169014084507</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,37 +1241,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1633466135458167</v>
+        <v>0.3154362416107382</v>
       </c>
       <c r="C15">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D15">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E15">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>210</v>
+        <v>102</v>
       </c>
       <c r="J15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L15">
         <v>38</v>
       </c>
-      <c r="K15">
-        <v>0.7887323943661971</v>
-      </c>
-      <c r="L15">
-        <v>112</v>
-      </c>
       <c r="M15">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,37 +1291,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.1048387096774194</v>
+        <v>0.28</v>
       </c>
       <c r="C16">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>333</v>
+        <v>54</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7578125</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,37 +1341,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.01844063409899709</v>
+        <v>0.123015873015873</v>
       </c>
       <c r="C17">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="E17">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>3034</v>
+        <v>221</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.7875</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,37 +1391,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01187084520417854</v>
+        <v>0.08042895442359249</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E18">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="G18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>2081</v>
+        <v>343</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.7209302325581395</v>
+        <v>0.7714285714285715</v>
       </c>
       <c r="L18">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,89 +1441,137 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008261836669844296</v>
+        <v>0.01908767389194435</v>
       </c>
       <c r="C19">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>75</v>
+      </c>
+      <c r="E19">
+        <v>0.21</v>
+      </c>
+      <c r="F19">
+        <v>0.79</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3032</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19">
+        <v>0.7682926829268293</v>
+      </c>
+      <c r="L19">
+        <v>63</v>
+      </c>
+      <c r="M19">
+        <v>63</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.01461574728901462</v>
+      </c>
+      <c r="C20">
+        <v>31</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>0.42</v>
+      </c>
+      <c r="F20">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>2090</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L20">
+        <v>35</v>
+      </c>
+      <c r="M20">
+        <v>35</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D19">
-        <v>80</v>
-      </c>
-      <c r="E19">
-        <v>0.68</v>
-      </c>
-      <c r="F19">
-        <v>0.32</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>3121</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L19">
-        <v>45</v>
-      </c>
-      <c r="M19">
-        <v>45</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="J20" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L20">
-        <v>25</v>
-      </c>
-      <c r="M20">
-        <v>25</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="B21">
+        <v>0.007341206511330993</v>
+      </c>
+      <c r="C21">
+        <v>23</v>
+      </c>
+      <c r="D21">
+        <v>91</v>
+      </c>
+      <c r="E21">
+        <v>0.75</v>
+      </c>
+      <c r="F21">
+        <v>0.25</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>3110</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.7037037037037037</v>
+        <v>0.7</v>
       </c>
       <c r="L21">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1529,21 +1583,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.7021276595744681</v>
+        <v>0.6825396825396826</v>
       </c>
       <c r="L22">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="M22">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1555,21 +1609,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23">
-        <v>0.6944444444444444</v>
+        <v>0.675</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1581,21 +1635,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1607,21 +1661,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.65</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>219</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1633,21 +1687,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6461538461538462</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L26">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1659,21 +1713,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.6382978723404256</v>
+        <v>0.6234309623430963</v>
       </c>
       <c r="L27">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="M27">
-        <v>60</v>
+        <v>149</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1685,21 +1739,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>34</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.638235294117647</v>
+        <v>0.6067796610169491</v>
       </c>
       <c r="L28">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="M28">
-        <v>217</v>
+        <v>179</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1711,21 +1765,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.6305084745762712</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="L29">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>186</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1737,21 +1791,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.62</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1763,21 +1817,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5815899581589958</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L31">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1789,21 +1843,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>100</v>
+        <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5730337078651685</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="L32">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1815,21 +1869,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1841,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.4313725490196079</v>
+        <v>0.4382022471910113</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1867,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4222222222222222</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1893,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.3974358974358974</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1919,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.3698630136986301</v>
+        <v>0.3561643835616438</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1945,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.34375</v>
+        <v>0.3559322033898305</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1971,12 +2025,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K39">
         <v>0.2638888888888889</v>
@@ -2002,106 +2056,106 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.02447163515016685</v>
+        <v>0.08143322475570032</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N40">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O40">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>877</v>
+        <v>282</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.02127659574468085</v>
+        <v>0.02561247216035635</v>
       </c>
       <c r="L41">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="O41">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="K42">
-        <v>0.01746931067044381</v>
+        <v>0.02139710509754563</v>
       </c>
       <c r="L42">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="M42">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="N42">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="O42">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>2081</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K43">
-        <v>0.01700787401574803</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="L43">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="M43">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="N43">
-        <v>0.68</v>
+        <v>0.42</v>
       </c>
       <c r="O43">
-        <v>0.32</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3121</v>
+        <v>2090</v>
       </c>
     </row>
   </sheetData>
